--- a/src/test/resources/Test Data/InputDataSheet.xlsx
+++ b/src/test/resources/Test Data/InputDataSheet.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiragsinghp\git\UI_Automation_Frameowrk\src\test\resources\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30226300-7BC9-41C4-9A23-0AA109F82A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4BCABD-8806-4A74-8C6A-3A5F087C02FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RegistrationData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -497,7 +497,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
